--- a/Code/Results/Cases/Case_5_215/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_215/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.45912808962681</v>
+        <v>9.159246203565411</v>
       </c>
       <c r="C2">
-        <v>7.164740222986437</v>
+        <v>4.54990462803945</v>
       </c>
       <c r="D2">
-        <v>6.63306047243615</v>
+        <v>8.979792736928573</v>
       </c>
       <c r="E2">
-        <v>9.286311182010959</v>
+        <v>13.7741381894298</v>
       </c>
       <c r="F2">
-        <v>23.43734301390785</v>
+        <v>34.5532575498221</v>
       </c>
       <c r="I2">
-        <v>15.32830005629389</v>
+        <v>24.06312510769077</v>
       </c>
       <c r="J2">
-        <v>6.069812545828283</v>
+        <v>10.26822494831437</v>
       </c>
       <c r="K2">
-        <v>11.28524883511424</v>
+        <v>9.454984062778024</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.09026870983729</v>
+        <v>14.97994496646656</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.97643551014571</v>
+        <v>26.20885599705252</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.68301566890336</v>
+        <v>8.884693243138791</v>
       </c>
       <c r="C3">
-        <v>6.737286099769715</v>
+        <v>4.367182745457312</v>
       </c>
       <c r="D3">
-        <v>6.36219695266929</v>
+        <v>8.945177260698756</v>
       </c>
       <c r="E3">
-        <v>9.074344863710866</v>
+        <v>13.7707508465181</v>
       </c>
       <c r="F3">
-        <v>23.29147082722358</v>
+        <v>34.63598502883697</v>
       </c>
       <c r="I3">
-        <v>15.52173540598758</v>
+        <v>24.16142677615179</v>
       </c>
       <c r="J3">
-        <v>6.080982327891628</v>
+        <v>10.28965163120326</v>
       </c>
       <c r="K3">
-        <v>10.65189545533516</v>
+        <v>9.278017926341532</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>10.6105160940326</v>
+        <v>14.91348651162719</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.05092826390832</v>
+        <v>26.29806613703064</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.17947873043681</v>
+        <v>8.712933884357627</v>
       </c>
       <c r="C4">
-        <v>6.460725056783113</v>
+        <v>4.251398255476383</v>
       </c>
       <c r="D4">
-        <v>6.192419923287849</v>
+        <v>8.925247705600649</v>
       </c>
       <c r="E4">
-        <v>8.946557649297251</v>
+        <v>13.77098270969403</v>
       </c>
       <c r="F4">
-        <v>23.22054605147067</v>
+        <v>34.69421619270287</v>
       </c>
       <c r="I4">
-        <v>15.65067502954997</v>
+        <v>24.22599673055972</v>
       </c>
       <c r="J4">
-        <v>6.090388663981329</v>
+        <v>10.30397794892022</v>
       </c>
       <c r="K4">
-        <v>10.24301823546948</v>
+        <v>9.16887682060614</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10.30850274866274</v>
+        <v>14.87470806016475</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.1098241104329</v>
+        <v>26.35785915870184</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.96750323920093</v>
+        <v>8.642247163269843</v>
       </c>
       <c r="C5">
-        <v>6.3444983925103</v>
+        <v>4.203379289785845</v>
       </c>
       <c r="D5">
-        <v>6.122464265546735</v>
+        <v>8.917465203559171</v>
       </c>
       <c r="E5">
-        <v>8.895136870011576</v>
+        <v>13.77166008228225</v>
       </c>
       <c r="F5">
-        <v>23.19621393807363</v>
+        <v>34.71981260068038</v>
       </c>
       <c r="I5">
-        <v>15.70568648618764</v>
+        <v>24.25336866349678</v>
       </c>
       <c r="J5">
-        <v>6.094848588797906</v>
+        <v>10.3101106098418</v>
       </c>
       <c r="K5">
-        <v>10.07142633628927</v>
+        <v>9.124336355166767</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>10.18372879502894</v>
+        <v>14.85942676693023</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.13700547843002</v>
+        <v>26.38348551760718</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.93189586265073</v>
+        <v>8.630471080607144</v>
       </c>
       <c r="C6">
-        <v>6.324986872574424</v>
+        <v>4.195357425596014</v>
       </c>
       <c r="D6">
-        <v>6.110804858763489</v>
+        <v>8.916193562360531</v>
       </c>
       <c r="E6">
-        <v>8.886639706614941</v>
+        <v>13.77180780581888</v>
       </c>
       <c r="F6">
-        <v>23.19244604752459</v>
+        <v>34.72417551263626</v>
       </c>
       <c r="I6">
-        <v>15.71496762996741</v>
+        <v>24.25797772076467</v>
       </c>
       <c r="J6">
-        <v>6.095626606939995</v>
+        <v>10.31114673359718</v>
       </c>
       <c r="K6">
-        <v>10.0426353936766</v>
+        <v>9.116938231947962</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>10.16291286414012</v>
+        <v>14.85692112462055</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.14170736236816</v>
+        <v>26.38781682421463</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.17664738688572</v>
+        <v>8.711983239181253</v>
       </c>
       <c r="C7">
-        <v>6.459171825550213</v>
+        <v>4.250753944088377</v>
       </c>
       <c r="D7">
-        <v>6.191479452549263</v>
+        <v>8.925141368112262</v>
       </c>
       <c r="E7">
-        <v>8.945861445496851</v>
+        <v>13.77098948297777</v>
       </c>
       <c r="F7">
-        <v>23.22019955632955</v>
+        <v>34.69455384088159</v>
       </c>
       <c r="I7">
-        <v>15.65140705615681</v>
+        <v>24.22636158963592</v>
       </c>
       <c r="J7">
-        <v>6.090446292611724</v>
+        <v>10.30405946302898</v>
       </c>
       <c r="K7">
-        <v>10.24072412722159</v>
+        <v>9.168276317673115</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>10.30682664899064</v>
+        <v>14.87449984612213</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.11017797528526</v>
+        <v>26.35819966420071</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.19713090775075</v>
+        <v>9.065302719393323</v>
       </c>
       <c r="C8">
-        <v>7.020290483331994</v>
+        <v>4.487685805201154</v>
       </c>
       <c r="D8">
-        <v>6.540443216659265</v>
+        <v>8.967586068079518</v>
       </c>
       <c r="E8">
-        <v>9.212771039866068</v>
+        <v>13.77249146527814</v>
       </c>
       <c r="F8">
-        <v>23.38310952417039</v>
+        <v>34.58023681273117</v>
       </c>
       <c r="I8">
-        <v>15.39282986080169</v>
+        <v>24.09614520729608</v>
       </c>
       <c r="J8">
-        <v>6.07312657283338</v>
+        <v>10.27537016654434</v>
       </c>
       <c r="K8">
-        <v>11.07104773825102</v>
+        <v>9.394100161046397</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.92649029175666</v>
+        <v>14.95661637013855</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.99931227181755</v>
+        <v>26.23857334968435</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.98416951692371</v>
+        <v>9.728600983315742</v>
       </c>
       <c r="C9">
-        <v>8.008286374227977</v>
+        <v>4.921230539540601</v>
       </c>
       <c r="D9">
-        <v>7.193405912539788</v>
+        <v>9.061054958811805</v>
       </c>
       <c r="E9">
-        <v>9.75232071569499</v>
+        <v>13.79370005099422</v>
       </c>
       <c r="F9">
-        <v>23.85526252781441</v>
+        <v>34.41519295800671</v>
       </c>
       <c r="I9">
-        <v>14.97082922037968</v>
+        <v>23.874217346683</v>
       </c>
       <c r="J9">
-        <v>6.060018173000124</v>
+        <v>10.2283825183283</v>
       </c>
       <c r="K9">
-        <v>12.53895719078611</v>
+        <v>9.830679906132623</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>12.07622206225163</v>
+        <v>15.13320433210077</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.89214153166502</v>
+        <v>26.0438653249317</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.16733614565232</v>
+        <v>10.1926966107678</v>
       </c>
       <c r="C10">
-        <v>8.665567108491832</v>
+        <v>5.217870362417732</v>
       </c>
       <c r="D10">
-        <v>7.649667296182955</v>
+        <v>9.135577970303672</v>
       </c>
       <c r="E10">
-        <v>10.1552358720931</v>
+        <v>13.82029583442825</v>
       </c>
       <c r="F10">
-        <v>24.30109979528937</v>
+        <v>34.33014180081312</v>
       </c>
       <c r="I10">
-        <v>14.71924361138588</v>
+        <v>23.7315484329819</v>
       </c>
       <c r="J10">
-        <v>6.063997255519507</v>
+        <v>10.19949485138645</v>
       </c>
       <c r="K10">
-        <v>13.51834803466501</v>
+        <v>10.14449992273156</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>12.90539206428152</v>
+        <v>15.27168703527884</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.88877448118314</v>
+        <v>25.92521299511394</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.6777071600154</v>
+        <v>10.39783829902839</v>
       </c>
       <c r="C11">
-        <v>8.949778520205234</v>
+        <v>5.347575969763151</v>
       </c>
       <c r="D11">
-        <v>7.851429513140508</v>
+        <v>9.1706620294134</v>
       </c>
       <c r="E11">
-        <v>10.33929911599654</v>
+        <v>13.8347555226266</v>
       </c>
       <c r="F11">
-        <v>24.5264695804868</v>
+        <v>34.29933812877429</v>
       </c>
       <c r="I11">
-        <v>14.61909591181542</v>
+        <v>23.6710718775938</v>
       </c>
       <c r="J11">
-        <v>6.068961311028087</v>
+        <v>10.18757254545453</v>
       </c>
       <c r="K11">
-        <v>13.94231915906921</v>
+        <v>10.28514281844965</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.34162278958849</v>
+        <v>15.33641729418297</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.90540136871279</v>
+        <v>25.87655130245835</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.86699517882252</v>
+        <v>10.47459216673368</v>
       </c>
       <c r="C12">
-        <v>9.055288110547703</v>
+        <v>5.39590552417813</v>
       </c>
       <c r="D12">
-        <v>7.926952346449835</v>
+        <v>9.184109639700061</v>
       </c>
       <c r="E12">
-        <v>10.40906174921584</v>
+        <v>13.84056745439139</v>
       </c>
       <c r="F12">
-        <v>24.61512868613246</v>
+        <v>34.28880910766716</v>
       </c>
       <c r="I12">
-        <v>14.58337635291819</v>
+        <v>23.64880749698161</v>
       </c>
       <c r="J12">
-        <v>6.071311349805094</v>
+        <v>10.18323282412617</v>
       </c>
       <c r="K12">
-        <v>14.09977039627167</v>
+        <v>10.33804848540862</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.50351848683447</v>
+        <v>15.36116346214243</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.91445787905768</v>
+        <v>25.85888997881384</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.82640507541609</v>
+        <v>10.45810418435092</v>
       </c>
       <c r="C13">
-        <v>9.032658578662614</v>
+        <v>5.385532388001024</v>
       </c>
       <c r="D13">
-        <v>7.910726954438065</v>
+        <v>9.181206380977283</v>
       </c>
       <c r="E13">
-        <v>10.39403510460957</v>
+        <v>13.83930084443041</v>
       </c>
       <c r="F13">
-        <v>24.59588578072329</v>
+        <v>34.29102619127598</v>
       </c>
       <c r="I13">
-        <v>14.59096869176127</v>
+        <v>23.65357419927917</v>
       </c>
       <c r="J13">
-        <v>6.070784041485293</v>
+        <v>10.18415968209156</v>
       </c>
       <c r="K13">
-        <v>14.06599809714776</v>
+        <v>10.32667073540224</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.4687974447399</v>
+        <v>15.35582375885723</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.91238225140384</v>
+        <v>25.86265957547581</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.69335956003907</v>
+        <v>10.40417187220264</v>
       </c>
       <c r="C14">
-        <v>8.958501168094076</v>
+        <v>5.351568024232155</v>
       </c>
       <c r="D14">
-        <v>7.857660700000037</v>
+        <v>9.171765172142909</v>
       </c>
       <c r="E14">
-        <v>10.34503755679988</v>
+        <v>13.8352269516636</v>
       </c>
       <c r="F14">
-        <v>24.53369676116812</v>
+        <v>34.29844913198598</v>
       </c>
       <c r="I14">
-        <v>14.61611217962885</v>
+        <v>23.66922740819256</v>
       </c>
       <c r="J14">
-        <v>6.069145128241414</v>
+        <v>10.18721200833682</v>
       </c>
       <c r="K14">
-        <v>13.95533480391535</v>
+        <v>10.28950273729182</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.35500792250354</v>
+        <v>15.33844856977912</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.90609027649562</v>
+        <v>25.87508293749696</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.61134812202851</v>
+        <v>10.37101387993498</v>
       </c>
       <c r="C15">
-        <v>8.912802570676824</v>
+        <v>5.330660435883114</v>
       </c>
       <c r="D15">
-        <v>7.825040219157862</v>
+        <v>9.166003016889601</v>
       </c>
       <c r="E15">
-        <v>10.31503181149479</v>
+        <v>13.83277528031809</v>
       </c>
       <c r="F15">
-        <v>24.49603812487877</v>
+        <v>34.30314383379179</v>
       </c>
       <c r="I15">
-        <v>14.6318049249429</v>
+        <v>23.67889839565694</v>
       </c>
       <c r="J15">
-        <v>6.068202991228103</v>
+        <v>10.18910442795898</v>
       </c>
       <c r="K15">
-        <v>13.88714716473543</v>
+        <v>10.2666889337177</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.28488026260403</v>
+        <v>15.32783581384108</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.90260016784116</v>
+        <v>25.88279238442432</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.13342388483009</v>
+        <v>10.17916374613208</v>
       </c>
       <c r="C16">
-        <v>8.646696531088747</v>
+        <v>5.209285384771944</v>
       </c>
       <c r="D16">
-        <v>7.636360859105705</v>
+        <v>9.133308266035071</v>
       </c>
       <c r="E16">
-        <v>10.14321815856525</v>
+        <v>13.81939810738185</v>
       </c>
       <c r="F16">
-        <v>24.28683164860157</v>
+        <v>34.33231373594193</v>
       </c>
       <c r="I16">
-        <v>14.72608863756244</v>
+        <v>23.73558979385117</v>
       </c>
       <c r="J16">
-        <v>6.063737729141612</v>
+        <v>10.20029850530877</v>
       </c>
       <c r="K16">
-        <v>13.49020677535501</v>
+        <v>10.1352617980273</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>12.87642065520249</v>
+        <v>15.26749036668542</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.88806599568827</v>
+        <v>25.92850022421341</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.83311603154014</v>
+        <v>10.05988726923603</v>
       </c>
       <c r="C17">
-        <v>8.479668267507316</v>
+        <v>5.133458499967137</v>
       </c>
       <c r="D17">
-        <v>7.519092053259839</v>
+        <v>9.113548447938864</v>
       </c>
       <c r="E17">
-        <v>10.03797783456376</v>
+        <v>13.81179422163287</v>
       </c>
       <c r="F17">
-        <v>24.16432182195404</v>
+        <v>34.35222972166972</v>
       </c>
       <c r="I17">
-        <v>14.78769290079957</v>
+        <v>23.77150168657463</v>
       </c>
       <c r="J17">
-        <v>6.061818015574603</v>
+        <v>10.20747769273155</v>
       </c>
       <c r="K17">
-        <v>13.24117462054674</v>
+        <v>10.05405828502698</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.64607570715546</v>
+        <v>15.23090382850455</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.88390636978097</v>
+        <v>25.95790272036283</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.65776288781703</v>
+        <v>9.99072360511833</v>
       </c>
       <c r="C18">
-        <v>8.382205077313413</v>
+        <v>5.089353613322128</v>
       </c>
       <c r="D18">
-        <v>7.451099064115822</v>
+        <v>9.102294989456759</v>
       </c>
       <c r="E18">
-        <v>9.977522032094113</v>
+        <v>13.80764311553945</v>
       </c>
       <c r="F18">
-        <v>24.0959766809457</v>
+        <v>34.36442711909768</v>
       </c>
       <c r="I18">
-        <v>14.82446248919775</v>
+        <v>23.79257365205581</v>
       </c>
       <c r="J18">
-        <v>6.061009688882629</v>
+        <v>10.21172171088729</v>
       </c>
       <c r="K18">
-        <v>13.09590805548513</v>
+        <v>10.00715579286723</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12.52727451334316</v>
+        <v>15.21002433841843</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.88321404271649</v>
+        <v>25.97531432617534</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.59793988525731</v>
+        <v>9.967212199359867</v>
       </c>
       <c r="C19">
-        <v>8.348966187439109</v>
+        <v>5.074337199918032</v>
       </c>
       <c r="D19">
-        <v>7.427986111876963</v>
+        <v>9.098504217707266</v>
       </c>
       <c r="E19">
-        <v>9.957067315506388</v>
+        <v>13.80627591998603</v>
       </c>
       <c r="F19">
-        <v>24.07319782651349</v>
+        <v>34.36868437485314</v>
       </c>
       <c r="I19">
-        <v>14.83713725091716</v>
+        <v>23.79977975666861</v>
       </c>
       <c r="J19">
-        <v>6.060786311180758</v>
+        <v>10.21317837725175</v>
       </c>
       <c r="K19">
-        <v>13.04637469871008</v>
+        <v>9.991243211065289</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>12.48687110682966</v>
+        <v>15.20298354346154</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.88326711281856</v>
+        <v>25.98129543174264</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.86535570493963</v>
+        <v>10.07264283174371</v>
       </c>
       <c r="C20">
-        <v>8.497592805048736</v>
+        <v>5.141581507927394</v>
       </c>
       <c r="D20">
-        <v>7.531632092682694</v>
+        <v>9.115640394483403</v>
       </c>
       <c r="E20">
-        <v>10.04917339147284</v>
+        <v>13.81258066780867</v>
       </c>
       <c r="F20">
-        <v>24.17714331281918</v>
+        <v>34.35003279808927</v>
       </c>
       <c r="I20">
-        <v>14.78099566891986</v>
+        <v>23.76763570492171</v>
       </c>
       <c r="J20">
-        <v>6.061991633961418</v>
+        <v>10.20670158281121</v>
       </c>
       <c r="K20">
-        <v>13.26789460396243</v>
+        <v>10.06272322258928</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.66797735427825</v>
+        <v>15.2347816504653</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.88417212982057</v>
+        <v>25.95472100696027</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.73254598583478</v>
+        <v>10.42003882409992</v>
       </c>
       <c r="C21">
-        <v>8.980340289899539</v>
+        <v>5.36156579080801</v>
       </c>
       <c r="D21">
-        <v>7.873271763881321</v>
+        <v>9.174533952076425</v>
       </c>
       <c r="E21">
-        <v>10.35942801654714</v>
+        <v>13.83641445054428</v>
       </c>
       <c r="F21">
-        <v>24.55187263270818</v>
+        <v>34.29623800235532</v>
       </c>
       <c r="I21">
-        <v>14.60866587197468</v>
+        <v>23.6646123945509</v>
       </c>
       <c r="J21">
-        <v>6.069613618852862</v>
+        <v>10.18631071894319</v>
       </c>
       <c r="K21">
-        <v>13.98792330282538</v>
+        <v>10.30042982588901</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.3885198655042</v>
+        <v>15.34354584919392</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.90786227693224</v>
+        <v>25.87141309816776</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.27613142832023</v>
+        <v>10.64164109473526</v>
       </c>
       <c r="C22">
-        <v>9.283523177914839</v>
+        <v>5.500737733051988</v>
       </c>
       <c r="D22">
-        <v>8.091407083307631</v>
+        <v>9.213964863446456</v>
       </c>
       <c r="E22">
-        <v>10.5625384834842</v>
+        <v>13.85395011882942</v>
       </c>
       <c r="F22">
-        <v>24.8161394611609</v>
+        <v>34.26769992144026</v>
       </c>
       <c r="I22">
-        <v>14.50896284988297</v>
+        <v>23.60099262857425</v>
       </c>
       <c r="J22">
-        <v>6.077344104082967</v>
+        <v>10.17400399796279</v>
       </c>
       <c r="K22">
-        <v>14.44045552261438</v>
+        <v>10.45370821652949</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.85364474345922</v>
+        <v>15.41598754595225</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.93950376092061</v>
+        <v>25.82143098646861</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.9881198710453</v>
+        <v>10.52388668457104</v>
       </c>
       <c r="C23">
-        <v>9.122831323554372</v>
+        <v>5.426889988511756</v>
       </c>
       <c r="D23">
-        <v>7.975468341732846</v>
+        <v>9.192836517418886</v>
       </c>
       <c r="E23">
-        <v>10.45411851918259</v>
+        <v>13.84441287797079</v>
       </c>
       <c r="F23">
-        <v>24.67330170638393</v>
+        <v>34.28232509694371</v>
       </c>
       <c r="I23">
-        <v>14.56094184281828</v>
+        <v>23.63460785467286</v>
       </c>
       <c r="J23">
-        <v>6.07296102748486</v>
+        <v>10.18047909784671</v>
       </c>
       <c r="K23">
-        <v>14.20057930959618</v>
+        <v>10.37210598472508</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.60714508534776</v>
+        <v>15.37720486285874</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.92108814726077</v>
+        <v>25.84769834652509</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.85078856724692</v>
+        <v>10.06687787440904</v>
       </c>
       <c r="C24">
-        <v>8.489493596572709</v>
+        <v>5.137910685052423</v>
       </c>
       <c r="D24">
-        <v>7.525964523800138</v>
+        <v>9.114694292415193</v>
       </c>
       <c r="E24">
-        <v>10.04411172604938</v>
+        <v>13.81222442852621</v>
       </c>
       <c r="F24">
-        <v>24.17134022064886</v>
+        <v>34.35102369915734</v>
       </c>
       <c r="I24">
-        <v>14.78401928584699</v>
+        <v>23.76938218910158</v>
       </c>
       <c r="J24">
-        <v>6.061912222424842</v>
+        <v>10.20705209886344</v>
       </c>
       <c r="K24">
-        <v>13.25582102398976</v>
+        <v>10.05880647809282</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>12.65807907688947</v>
+        <v>15.23302800445891</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.88404669868322</v>
+        <v>25.95615787818877</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.52359886912252</v>
+        <v>9.552894572744057</v>
       </c>
       <c r="C25">
-        <v>7.753069340246113</v>
+        <v>4.807601966559889</v>
       </c>
       <c r="D25">
-        <v>7.020610592460269</v>
+        <v>9.034712222688835</v>
       </c>
       <c r="E25">
-        <v>9.60498364352396</v>
+        <v>13.78601866735588</v>
       </c>
       <c r="F25">
-        <v>23.71054407608662</v>
+        <v>34.45349340751782</v>
       </c>
       <c r="I25">
-        <v>15.07523711699783</v>
+        <v>23.93067593393564</v>
       </c>
       <c r="J25">
-        <v>6.061240215611521</v>
+        <v>10.24010316240562</v>
       </c>
       <c r="K25">
-        <v>12.15919596979847</v>
+        <v>9.713574018842991</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>11.77299683255202</v>
+        <v>15.08384152379499</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.90849776283925</v>
+        <v>26.09226038883631</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_215/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_215/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.159246203565411</v>
+        <v>12.45912808962676</v>
       </c>
       <c r="C2">
-        <v>4.54990462803945</v>
+        <v>7.164740222986707</v>
       </c>
       <c r="D2">
-        <v>8.979792736928573</v>
+        <v>6.6330604724362</v>
       </c>
       <c r="E2">
-        <v>13.7741381894298</v>
+        <v>9.286311182010952</v>
       </c>
       <c r="F2">
-        <v>34.5532575498221</v>
+        <v>23.43734301390771</v>
       </c>
       <c r="I2">
-        <v>24.06312510769077</v>
+        <v>15.32830005629392</v>
       </c>
       <c r="J2">
-        <v>10.26822494831437</v>
+        <v>6.069812545828322</v>
       </c>
       <c r="K2">
-        <v>9.454984062778024</v>
+        <v>11.28524883511432</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.97994496646656</v>
+        <v>11.09026870983725</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.20885599705252</v>
+        <v>16.97643551014554</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.884693243138791</v>
+        <v>11.68301566890338</v>
       </c>
       <c r="C3">
-        <v>4.367182745457312</v>
+        <v>6.737286099769813</v>
       </c>
       <c r="D3">
-        <v>8.945177260698756</v>
+        <v>6.36219695266917</v>
       </c>
       <c r="E3">
-        <v>13.7707508465181</v>
+        <v>9.074344863710778</v>
       </c>
       <c r="F3">
-        <v>34.63598502883697</v>
+        <v>23.2914708272236</v>
       </c>
       <c r="I3">
-        <v>24.16142677615179</v>
+        <v>15.52173540598772</v>
       </c>
       <c r="J3">
-        <v>10.28965163120326</v>
+        <v>6.080982327891543</v>
       </c>
       <c r="K3">
-        <v>9.278017926341532</v>
+        <v>10.65189545533518</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.91348651162719</v>
+        <v>10.61051609403257</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.29806613703064</v>
+        <v>17.05092826390839</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.712933884357627</v>
+        <v>11.17947873043694</v>
       </c>
       <c r="C4">
-        <v>4.251398255476383</v>
+        <v>6.460725056783019</v>
       </c>
       <c r="D4">
-        <v>8.925247705600649</v>
+        <v>6.19241992328781</v>
       </c>
       <c r="E4">
-        <v>13.77098270969403</v>
+        <v>8.946557649297336</v>
       </c>
       <c r="F4">
-        <v>34.69421619270287</v>
+        <v>23.22054605147066</v>
       </c>
       <c r="I4">
-        <v>24.22599673055972</v>
+        <v>15.65067502954993</v>
       </c>
       <c r="J4">
-        <v>10.30397794892022</v>
+        <v>6.090388663981392</v>
       </c>
       <c r="K4">
-        <v>9.16887682060614</v>
+        <v>10.24301823546953</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.87470806016475</v>
+        <v>10.30850274866273</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.35785915870184</v>
+        <v>17.1098241104329</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.642247163269843</v>
+        <v>10.96750323920097</v>
       </c>
       <c r="C5">
-        <v>4.203379289785845</v>
+        <v>6.344498392510192</v>
       </c>
       <c r="D5">
-        <v>8.917465203559171</v>
+        <v>6.122464265546735</v>
       </c>
       <c r="E5">
-        <v>13.77166008228225</v>
+        <v>8.895136870011576</v>
       </c>
       <c r="F5">
-        <v>34.71981260068038</v>
+        <v>23.19621393807358</v>
       </c>
       <c r="I5">
-        <v>24.25336866349678</v>
+        <v>15.70568648618758</v>
       </c>
       <c r="J5">
-        <v>10.3101106098418</v>
+        <v>6.094848588797873</v>
       </c>
       <c r="K5">
-        <v>9.124336355166767</v>
+        <v>10.0714263362893</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.85942676693023</v>
+        <v>10.18372879502891</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.38348551760718</v>
+        <v>17.13700547842999</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.630471080607144</v>
+        <v>10.93189586265071</v>
       </c>
       <c r="C6">
-        <v>4.195357425596014</v>
+        <v>6.32498687257441</v>
       </c>
       <c r="D6">
-        <v>8.916193562360531</v>
+        <v>6.110804858763584</v>
       </c>
       <c r="E6">
-        <v>13.77180780581888</v>
+        <v>8.886639706614941</v>
       </c>
       <c r="F6">
-        <v>34.72417551263626</v>
+        <v>23.1924460475248</v>
       </c>
       <c r="I6">
-        <v>24.25797772076467</v>
+        <v>15.71496762996754</v>
       </c>
       <c r="J6">
-        <v>10.31114673359718</v>
+        <v>6.095626606939967</v>
       </c>
       <c r="K6">
-        <v>9.116938231947962</v>
+        <v>10.04263539367659</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.85692112462055</v>
+        <v>10.16291286414012</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.38781682421463</v>
+        <v>17.1417073623683</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.711983239181253</v>
+        <v>11.17664738688571</v>
       </c>
       <c r="C7">
-        <v>4.250753944088377</v>
+        <v>6.459171825550119</v>
       </c>
       <c r="D7">
-        <v>8.925141368112262</v>
+        <v>6.191479452549243</v>
       </c>
       <c r="E7">
-        <v>13.77098948297777</v>
+        <v>8.94586144549681</v>
       </c>
       <c r="F7">
-        <v>34.69455384088159</v>
+        <v>23.22019955632963</v>
       </c>
       <c r="I7">
-        <v>24.22636158963592</v>
+        <v>15.65140705615683</v>
       </c>
       <c r="J7">
-        <v>10.30405946302898</v>
+        <v>6.090446292611702</v>
       </c>
       <c r="K7">
-        <v>9.168276317673115</v>
+        <v>10.24072412722157</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.87449984612213</v>
+        <v>10.30682664899061</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.35819966420071</v>
+        <v>17.11017797528528</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.065302719393323</v>
+        <v>12.19713090775071</v>
       </c>
       <c r="C8">
-        <v>4.487685805201154</v>
+        <v>7.020290483331982</v>
       </c>
       <c r="D8">
-        <v>8.967586068079518</v>
+        <v>6.540443216659203</v>
       </c>
       <c r="E8">
-        <v>13.77249146527814</v>
+        <v>9.212771039866029</v>
       </c>
       <c r="F8">
-        <v>34.58023681273117</v>
+        <v>23.38310952417038</v>
       </c>
       <c r="I8">
-        <v>24.09614520729608</v>
+        <v>15.39282986080172</v>
       </c>
       <c r="J8">
-        <v>10.27537016654434</v>
+        <v>6.073126572833411</v>
       </c>
       <c r="K8">
-        <v>9.394100161046397</v>
+        <v>11.07104773825099</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.95661637013855</v>
+        <v>10.92649029175665</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.23857334968435</v>
+        <v>16.99931227181757</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.728600983315742</v>
+        <v>13.98416951692386</v>
       </c>
       <c r="C9">
-        <v>4.921230539540601</v>
+        <v>8.00828637422773</v>
       </c>
       <c r="D9">
-        <v>9.061054958811805</v>
+        <v>7.193405912539749</v>
       </c>
       <c r="E9">
-        <v>13.79370005099422</v>
+        <v>9.752320715694969</v>
       </c>
       <c r="F9">
-        <v>34.41519295800671</v>
+        <v>23.85526252781432</v>
       </c>
       <c r="I9">
-        <v>23.874217346683</v>
+        <v>14.97082922037948</v>
       </c>
       <c r="J9">
-        <v>10.2283825183283</v>
+        <v>6.060018173000156</v>
       </c>
       <c r="K9">
-        <v>9.830679906132623</v>
+        <v>12.53895719078613</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.13320433210077</v>
+        <v>12.07622206225163</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.0438653249317</v>
+        <v>16.89214153166494</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.1926966107678</v>
+        <v>15.16733614565225</v>
       </c>
       <c r="C10">
-        <v>5.217870362417732</v>
+        <v>8.665567108492072</v>
       </c>
       <c r="D10">
-        <v>9.135577970303672</v>
+        <v>7.649667296183003</v>
       </c>
       <c r="E10">
-        <v>13.82029583442825</v>
+        <v>10.15523587209314</v>
       </c>
       <c r="F10">
-        <v>34.33014180081312</v>
+        <v>24.30109979528951</v>
       </c>
       <c r="I10">
-        <v>23.7315484329819</v>
+        <v>14.71924361138599</v>
       </c>
       <c r="J10">
-        <v>10.19949485138645</v>
+        <v>6.063997255519437</v>
       </c>
       <c r="K10">
-        <v>10.14449992273156</v>
+        <v>13.51834803466504</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.27168703527884</v>
+        <v>12.90539206428151</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.92521299511394</v>
+        <v>16.88877448118315</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.39783829902839</v>
+        <v>15.6777071600154</v>
       </c>
       <c r="C11">
-        <v>5.347575969763151</v>
+        <v>8.949778520205342</v>
       </c>
       <c r="D11">
-        <v>9.1706620294134</v>
+        <v>7.851429513140477</v>
       </c>
       <c r="E11">
-        <v>13.8347555226266</v>
+        <v>10.33929911599656</v>
       </c>
       <c r="F11">
-        <v>34.29933812877429</v>
+        <v>24.52646958048669</v>
       </c>
       <c r="I11">
-        <v>23.6710718775938</v>
+        <v>14.61909591181535</v>
       </c>
       <c r="J11">
-        <v>10.18757254545453</v>
+        <v>6.068961311028094</v>
       </c>
       <c r="K11">
-        <v>10.28514281844965</v>
+        <v>13.94231915906926</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.33641729418297</v>
+        <v>13.34162278958851</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.87655130245835</v>
+        <v>16.90540136871269</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.47459216673368</v>
+        <v>15.86699517882257</v>
       </c>
       <c r="C12">
-        <v>5.39590552417813</v>
+        <v>9.055288110547648</v>
       </c>
       <c r="D12">
-        <v>9.184109639700061</v>
+        <v>7.926952346449897</v>
       </c>
       <c r="E12">
-        <v>13.84056745439139</v>
+        <v>10.40906174921589</v>
       </c>
       <c r="F12">
-        <v>34.28880910766716</v>
+        <v>24.61512868613245</v>
       </c>
       <c r="I12">
-        <v>23.64880749698161</v>
+        <v>14.58337635291812</v>
       </c>
       <c r="J12">
-        <v>10.18323282412617</v>
+        <v>6.071311349805119</v>
       </c>
       <c r="K12">
-        <v>10.33804848540862</v>
+        <v>14.09977039627173</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.36116346214243</v>
+        <v>13.50351848683449</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.85888997881384</v>
+        <v>16.91445787905763</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.45810418435092</v>
+        <v>15.82640507541606</v>
       </c>
       <c r="C13">
-        <v>5.385532388001024</v>
+        <v>9.032658578662597</v>
       </c>
       <c r="D13">
-        <v>9.181206380977283</v>
+        <v>7.910726954437966</v>
       </c>
       <c r="E13">
-        <v>13.83930084443041</v>
+        <v>10.39403510460957</v>
       </c>
       <c r="F13">
-        <v>34.29102619127598</v>
+        <v>24.59588578072316</v>
       </c>
       <c r="I13">
-        <v>23.65357419927917</v>
+        <v>14.59096869176115</v>
       </c>
       <c r="J13">
-        <v>10.18415968209156</v>
+        <v>6.07078404148533</v>
       </c>
       <c r="K13">
-        <v>10.32667073540224</v>
+        <v>14.06599809714772</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.35582375885723</v>
+        <v>13.46879744473991</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.86265957547581</v>
+        <v>16.91238225140376</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.40417187220264</v>
+        <v>15.69335956003906</v>
       </c>
       <c r="C14">
-        <v>5.351568024232155</v>
+        <v>8.958501168094086</v>
       </c>
       <c r="D14">
-        <v>9.171765172142909</v>
+        <v>7.85766070000003</v>
       </c>
       <c r="E14">
-        <v>13.8352269516636</v>
+        <v>10.34503755679988</v>
       </c>
       <c r="F14">
-        <v>34.29844913198598</v>
+        <v>24.53369676116817</v>
       </c>
       <c r="I14">
-        <v>23.66922740819256</v>
+        <v>14.61611217962895</v>
       </c>
       <c r="J14">
-        <v>10.18721200833682</v>
+        <v>6.069145128241466</v>
       </c>
       <c r="K14">
-        <v>10.28950273729182</v>
+        <v>13.95533480391531</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.33844856977912</v>
+        <v>13.35500792250353</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.87508293749696</v>
+        <v>16.9060902764957</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.37101387993498</v>
+        <v>15.6113481220285</v>
       </c>
       <c r="C15">
-        <v>5.330660435883114</v>
+        <v>8.912802570676833</v>
       </c>
       <c r="D15">
-        <v>9.166003016889601</v>
+        <v>7.825040219157859</v>
       </c>
       <c r="E15">
-        <v>13.83277528031809</v>
+        <v>10.31503181149482</v>
       </c>
       <c r="F15">
-        <v>34.30314383379179</v>
+        <v>24.49603812487885</v>
       </c>
       <c r="I15">
-        <v>23.67889839565694</v>
+        <v>14.63180492494302</v>
       </c>
       <c r="J15">
-        <v>10.18910442795898</v>
+        <v>6.068202991228132</v>
       </c>
       <c r="K15">
-        <v>10.2666889337177</v>
+        <v>13.8871471647354</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.32783581384108</v>
+        <v>13.28488026260401</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.88279238442432</v>
+        <v>16.90260016784122</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.17916374613208</v>
+        <v>15.13342388483014</v>
       </c>
       <c r="C16">
-        <v>5.209285384771944</v>
+        <v>8.646696531088626</v>
       </c>
       <c r="D16">
-        <v>9.133308266035071</v>
+        <v>7.636360859105723</v>
       </c>
       <c r="E16">
-        <v>13.81939810738185</v>
+        <v>10.14321815856522</v>
       </c>
       <c r="F16">
-        <v>34.33231373594193</v>
+        <v>24.2868316486016</v>
       </c>
       <c r="I16">
-        <v>23.73558979385117</v>
+        <v>14.72608863756242</v>
       </c>
       <c r="J16">
-        <v>10.20029850530877</v>
+        <v>6.063737729141565</v>
       </c>
       <c r="K16">
-        <v>10.1352617980273</v>
+        <v>13.490206775355</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.26749036668542</v>
+        <v>12.87642065520251</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.92850022421341</v>
+        <v>16.88806599568827</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.05988726923603</v>
+        <v>14.83311603154011</v>
       </c>
       <c r="C17">
-        <v>5.133458499967137</v>
+        <v>8.479668267507304</v>
       </c>
       <c r="D17">
-        <v>9.113548447938864</v>
+        <v>7.519092053259839</v>
       </c>
       <c r="E17">
-        <v>13.81179422163287</v>
+        <v>10.03797783456376</v>
       </c>
       <c r="F17">
-        <v>34.35222972166972</v>
+        <v>24.16432182195405</v>
       </c>
       <c r="I17">
-        <v>23.77150168657463</v>
+        <v>14.78769290079958</v>
       </c>
       <c r="J17">
-        <v>10.20747769273155</v>
+        <v>6.0618180155746</v>
       </c>
       <c r="K17">
-        <v>10.05405828502698</v>
+        <v>13.24117462054671</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.23090382850455</v>
+        <v>12.64607570715546</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.95790272036283</v>
+        <v>16.88390636978097</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.99072360511833</v>
+        <v>14.65776288781705</v>
       </c>
       <c r="C18">
-        <v>5.089353613322128</v>
+        <v>8.382205077313285</v>
       </c>
       <c r="D18">
-        <v>9.102294989456759</v>
+        <v>7.451099064115815</v>
       </c>
       <c r="E18">
-        <v>13.80764311553945</v>
+        <v>9.977522032094106</v>
       </c>
       <c r="F18">
-        <v>34.36442711909768</v>
+        <v>24.09597668094573</v>
       </c>
       <c r="I18">
-        <v>23.79257365205581</v>
+        <v>14.82446248919769</v>
       </c>
       <c r="J18">
-        <v>10.21172171088729</v>
+        <v>6.061009688882632</v>
       </c>
       <c r="K18">
-        <v>10.00715579286723</v>
+        <v>13.0959080554851</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.21002433841843</v>
+        <v>12.52727451334316</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.97531432617534</v>
+        <v>16.88321404271653</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.967212199359867</v>
+        <v>14.59793988525736</v>
       </c>
       <c r="C19">
-        <v>5.074337199918032</v>
+        <v>8.348966187439091</v>
       </c>
       <c r="D19">
-        <v>9.098504217707266</v>
+        <v>7.427986111876954</v>
       </c>
       <c r="E19">
-        <v>13.80627591998603</v>
+        <v>9.957067315506354</v>
       </c>
       <c r="F19">
-        <v>34.36868437485314</v>
+        <v>24.07319782651333</v>
       </c>
       <c r="I19">
-        <v>23.79977975666861</v>
+        <v>14.83713725091709</v>
       </c>
       <c r="J19">
-        <v>10.21317837725175</v>
+        <v>6.06078631118074</v>
       </c>
       <c r="K19">
-        <v>9.991243211065289</v>
+        <v>13.0463746987101</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.20298354346154</v>
+        <v>12.48687110682963</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.98129543174264</v>
+        <v>16.88326711281843</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.07264283174371</v>
+        <v>14.86535570493965</v>
       </c>
       <c r="C20">
-        <v>5.141581507927394</v>
+        <v>8.497592805048752</v>
       </c>
       <c r="D20">
-        <v>9.115640394483403</v>
+        <v>7.531632092682779</v>
       </c>
       <c r="E20">
-        <v>13.81258066780867</v>
+        <v>10.04917339147285</v>
       </c>
       <c r="F20">
-        <v>34.35003279808927</v>
+        <v>24.17714331281914</v>
       </c>
       <c r="I20">
-        <v>23.76763570492171</v>
+        <v>14.78099566891983</v>
       </c>
       <c r="J20">
-        <v>10.20670158281121</v>
+        <v>6.061991633961371</v>
       </c>
       <c r="K20">
-        <v>10.06272322258928</v>
+        <v>13.26789460396245</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.2347816504653</v>
+        <v>12.66797735427824</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.95472100696027</v>
+        <v>16.8841721298205</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.42003882409992</v>
+        <v>15.7325459858348</v>
       </c>
       <c r="C21">
-        <v>5.36156579080801</v>
+        <v>8.98034028989958</v>
       </c>
       <c r="D21">
-        <v>9.174533952076425</v>
+        <v>7.873271763881299</v>
       </c>
       <c r="E21">
-        <v>13.83641445054428</v>
+        <v>10.35942801654713</v>
       </c>
       <c r="F21">
-        <v>34.29623800235532</v>
+        <v>24.55187263270812</v>
       </c>
       <c r="I21">
-        <v>23.6646123945509</v>
+        <v>14.60866587197468</v>
       </c>
       <c r="J21">
-        <v>10.18631071894319</v>
+        <v>6.069613618852862</v>
       </c>
       <c r="K21">
-        <v>10.30042982588901</v>
+        <v>13.9879233028254</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.34354584919392</v>
+        <v>13.38851986550423</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.87141309816776</v>
+        <v>16.90786227693219</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.64164109473526</v>
+        <v>16.27613142832023</v>
       </c>
       <c r="C22">
-        <v>5.500737733051988</v>
+        <v>9.283523177914834</v>
       </c>
       <c r="D22">
-        <v>9.213964863446456</v>
+        <v>8.091407083307612</v>
       </c>
       <c r="E22">
-        <v>13.85395011882942</v>
+        <v>10.56253848348417</v>
       </c>
       <c r="F22">
-        <v>34.26769992144026</v>
+        <v>24.81613946116106</v>
       </c>
       <c r="I22">
-        <v>23.60099262857425</v>
+        <v>14.50896284988313</v>
       </c>
       <c r="J22">
-        <v>10.17400399796279</v>
+        <v>6.077344104082965</v>
       </c>
       <c r="K22">
-        <v>10.45370821652949</v>
+        <v>14.44045552261435</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.41598754595225</v>
+        <v>13.85364474345922</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.82143098646861</v>
+        <v>16.93950376092076</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.52388668457104</v>
+        <v>15.9881198710454</v>
       </c>
       <c r="C23">
-        <v>5.426889988511756</v>
+        <v>9.122831323554253</v>
       </c>
       <c r="D23">
-        <v>9.192836517418886</v>
+        <v>7.975468341732745</v>
       </c>
       <c r="E23">
-        <v>13.84441287797079</v>
+        <v>10.45411851918249</v>
       </c>
       <c r="F23">
-        <v>34.28232509694371</v>
+        <v>24.67330170638374</v>
       </c>
       <c r="I23">
-        <v>23.63460785467286</v>
+        <v>14.56094184281816</v>
       </c>
       <c r="J23">
-        <v>10.18047909784671</v>
+        <v>6.072961027484862</v>
       </c>
       <c r="K23">
-        <v>10.37210598472508</v>
+        <v>14.20057930959623</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.37720486285874</v>
+        <v>13.60714508534782</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.84769834652509</v>
+        <v>16.92108814726066</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.06687787440904</v>
+        <v>14.8507885672469</v>
       </c>
       <c r="C24">
-        <v>5.137910685052423</v>
+        <v>8.489493596572718</v>
       </c>
       <c r="D24">
-        <v>9.114694292415193</v>
+        <v>7.52596452380017</v>
       </c>
       <c r="E24">
-        <v>13.81222442852621</v>
+        <v>10.04411172604938</v>
       </c>
       <c r="F24">
-        <v>34.35102369915734</v>
+        <v>24.17134022064889</v>
       </c>
       <c r="I24">
-        <v>23.76938218910158</v>
+        <v>14.78401928584702</v>
       </c>
       <c r="J24">
-        <v>10.20705209886344</v>
+        <v>6.061912222424869</v>
       </c>
       <c r="K24">
-        <v>10.05880647809282</v>
+        <v>13.25582102398972</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.23302800445891</v>
+        <v>12.65807907688948</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.95615787818877</v>
+        <v>16.88404669868327</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.552894572744057</v>
+        <v>13.52359886912253</v>
       </c>
       <c r="C25">
-        <v>4.807601966559889</v>
+        <v>7.753069340246236</v>
       </c>
       <c r="D25">
-        <v>9.034712222688835</v>
+        <v>7.020610592460187</v>
       </c>
       <c r="E25">
-        <v>13.78601866735588</v>
+        <v>9.604983643523926</v>
       </c>
       <c r="F25">
-        <v>34.45349340751782</v>
+        <v>23.71054407608641</v>
       </c>
       <c r="I25">
-        <v>23.93067593393564</v>
+        <v>15.07523711699776</v>
       </c>
       <c r="J25">
-        <v>10.24010316240562</v>
+        <v>6.061240215611551</v>
       </c>
       <c r="K25">
-        <v>9.713574018842991</v>
+        <v>12.15919596979853</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.08384152379499</v>
+        <v>11.77299683255199</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.09226038883631</v>
+        <v>16.90849776283908</v>
       </c>
     </row>
   </sheetData>
